--- a/server/docs/requirement/FRS-SmartAT.xlsx
+++ b/server/docs/requirement/FRS-SmartAT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
   <si>
     <t>F00001_001</t>
   </si>
@@ -507,6 +507,9 @@
   </si>
   <si>
     <t>A collection of test sessions for a project or product.</t>
+  </si>
+  <si>
+    <t>Smart Automation Test</t>
   </si>
 </sst>
 </file>
@@ -974,7 +977,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15"/>
@@ -2255,7 +2258,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15"/>
@@ -2479,6 +2482,9 @@
       <c r="B3" s="27" t="s">
         <v>143</v>
       </c>
+      <c r="C3" s="26" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="26">
